--- a/xtt_demo/06-03_R.xlsx
+++ b/xtt_demo/06-03_R.xlsx
@@ -33,37 +33,9 @@
     <definedName name="I_23">'Rows'!$I$26</definedName>
     <definedName name="I_24">'Rows'!$I$27</definedName>
     <definedName name="I_25">'Rows'!$I$28</definedName>
-    <definedName name="I_26">'Rows'!$I$29</definedName>
-    <definedName name="I_27">'Rows'!$I$30</definedName>
-    <definedName name="I_28">'Rows'!$I$31</definedName>
-    <definedName name="I_29">'Rows'!$I$32</definedName>
     <definedName name="I_3">'Rows'!$I$6</definedName>
-    <definedName name="I_30">'Rows'!$I$33</definedName>
-    <definedName name="I_31">'Rows'!$I$34</definedName>
-    <definedName name="I_32">'Rows'!$I$35</definedName>
-    <definedName name="I_33">'Rows'!$I$36</definedName>
-    <definedName name="I_34">'Rows'!$I$37</definedName>
-    <definedName name="I_35">'Rows'!$I$38</definedName>
-    <definedName name="I_36">'Rows'!$I$39</definedName>
-    <definedName name="I_37">'Rows'!$I$40</definedName>
-    <definedName name="I_38">'Rows'!$I$41</definedName>
-    <definedName name="I_39">'Rows'!$I$42</definedName>
     <definedName name="I_4">'Rows'!$I$7</definedName>
-    <definedName name="I_40">'Rows'!$I$43</definedName>
-    <definedName name="I_41">'Rows'!$I$44</definedName>
-    <definedName name="I_42">'Rows'!$I$45</definedName>
-    <definedName name="I_43">'Rows'!$I$46</definedName>
-    <definedName name="I_44">'Rows'!$I$47</definedName>
-    <definedName name="I_45">'Rows'!$I$48</definedName>
-    <definedName name="I_46">'Rows'!$I$49</definedName>
-    <definedName name="I_47">'Rows'!$I$50</definedName>
-    <definedName name="I_48">'Rows'!$I$51</definedName>
-    <definedName name="I_49">'Rows'!$I$52</definedName>
     <definedName name="I_5">'Rows'!$I$8</definedName>
-    <definedName name="I_50">'Rows'!$I$53</definedName>
-    <definedName name="I_51">'Rows'!$I$54</definedName>
-    <definedName name="I_52">'Rows'!$I$55</definedName>
-    <definedName name="I_53">'Rows'!$I$56</definedName>
     <definedName name="I_6">'Rows'!$I$9</definedName>
     <definedName name="I_7">'Rows'!$I$10</definedName>
     <definedName name="I_8">'Rows'!$I$11</definedName>
@@ -74,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Convert R-T to tree</t>
   </si>
@@ -97,160 +69,76 @@
     <t>R:</t>
   </si>
   <si>
-    <t>R:\09 at 08.20.59</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\abapdoc</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\abapdoc\zhr_util_xtt</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\abapdoc\zhr_util_xtt\classes</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\abapdoc\zhr_util_xtt\interfaces</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\htmldesign</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35\abapdoc</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35\abapdoc\zhr_util_eui_demo</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35\abapdoc\zhr_util_eui_demo\classes</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35\htmldesign</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\classes</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\interfaces</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\zhr_util_eui_demo</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\zhr_util_eui_demo\classes</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\htmldesign</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_excptns</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_excptns\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_appl</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_appl\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_appl\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_persist</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_persist\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present\sabap_demos_car_rental_wd</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present\sabap_demos_car_rental_wd\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present\sabap_demos_car_rental_wd\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_calculator</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_calculator\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_string_processing</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_string_processing\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_input</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_input\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_input\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_output_stream</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_output_stream\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_output_stream\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_text_output</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_text_output\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\htmldesign</t>
+    <t>R:\Language</t>
+  </si>
+  <si>
+    <t>R:\Plugins</t>
+  </si>
+  <si>
+    <t>R:\Plugins\arc</t>
+  </si>
+  <si>
+    <t>R:\Plugins\exe</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\7Zip</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\7Zip\lang</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\MultiArc</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\MultiArc\FreeARC</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\MultiArc\Lang</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip\7z-AMD64</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip\7z-AMD64\Formats</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip\7z-X86</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip\7z-X86\Formats</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine0</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine0\Plugin</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine\Language</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine\Plugin</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\SLister</t>
+  </si>
+  <si>
+    <t>R:\Programs</t>
+  </si>
+  <si>
+    <t>R:\Programs\ImDiskVDD</t>
   </si>
   <si>
     <t>Raw path</t>
@@ -1262,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="15.75">
@@ -1273,10 +1161,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>5</v>
@@ -1291,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15">
@@ -1312,11 +1200,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s"/>
       <c r="I4" s="3" t="e">
-        <f>IF(G$4="X",SUM(I_2,I_8,I_13,I_21),VALUE(D$4))</f>
+        <f>IF(G$4="X",SUM(I_2,I_3,I_24),VALUE(D$4))</f>
       </c>
     </row>
     <row r="5" customHeight="1" ht="15">
@@ -1328,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <v>0.00</v>
+        <v>675857.00</v>
       </c>
       <c r="E5" s="4" t="e">
         <f>B$5 &amp; C$5</f>
@@ -1336,14 +1224,12 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="G5" s="1" t="s"/>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="3" t="e">
-        <f>IF(G$5="X",SUM(I_3,I_7),VALUE(D$5))</f>
+        <f>IF(G$5="X",SUM(I_),VALUE(D$5))</f>
       </c>
     </row>
     <row r="6" customHeight="1" ht="15">
@@ -1361,16 +1247,16 @@
         <f>B$6 &amp; C$6</f>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="3" t="e">
-        <f>IF(G$6="X",SUM(I_4),VALUE(D$6))</f>
+        <f>IF(G$6="X",SUM(I_4,I_5,I_6,I_17),VALUE(D$6))</f>
       </c>
     </row>
     <row r="7" customHeight="1" ht="15">
@@ -1382,22 +1268,20 @@
         <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>0.00</v>
+        <v>556386.00</v>
       </c>
       <c r="E7" s="4" t="e">
         <f>B$7 &amp; C$7</f>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s"/>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3" t="e">
-        <f>IF(G$7="X",SUM(I_5,I_6),VALUE(D$7))</f>
+        <f>IF(G$7="X",SUM(I_),VALUE(D$7))</f>
       </c>
     </row>
     <row r="8" customHeight="1" ht="15">
@@ -1409,17 +1293,17 @@
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>675857.00</v>
+        <v>98268.00</v>
       </c>
       <c r="E8" s="4" t="e">
         <f>B$8 &amp; C$8</f>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="s"/>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="3" t="e">
         <f>IF(G$8="X",SUM(I_),VALUE(D$8))</f>
@@ -1434,20 +1318,22 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>556386.00</v>
+        <v>0.00</v>
       </c>
       <c r="E9" s="4" t="e">
         <f>B$9 &amp; C$9</f>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="3" t="e">
-        <f>IF(G$9="X",SUM(I_),VALUE(D$9))</f>
+        <f>IF(G$9="X",SUM(I_7,I_9,I_12),VALUE(D$9))</f>
       </c>
     </row>
     <row r="10" customHeight="1" ht="15">
@@ -1459,20 +1345,22 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <v>98268.00</v>
+        <v>0.00</v>
       </c>
       <c r="E10" s="4" t="e">
         <f>B$10 &amp; C$10</f>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I10" s="3" t="e">
-        <f>IF(G$10="X",SUM(I_),VALUE(D$10))</f>
+        <f>IF(G$10="X",SUM(I_8),VALUE(D$10))</f>
       </c>
     </row>
     <row r="11" customHeight="1" ht="15">
@@ -1484,22 +1372,20 @@
         <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>0.00</v>
+        <v>992707.00</v>
       </c>
       <c r="E11" s="4" t="e">
         <f>B$11 &amp; C$11</f>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s"/>
       <c r="H11" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11" s="3" t="e">
-        <f>IF(G$11="X",SUM(I_9,I_12),VALUE(D$11))</f>
+        <f>IF(G$11="X",SUM(I_),VALUE(D$11))</f>
       </c>
     </row>
     <row r="12" customHeight="1" ht="15">
@@ -1517,16 +1403,16 @@
         <f>B$12 &amp; C$12</f>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" s="3" t="e">
-        <f>IF(G$12="X",SUM(I_10),VALUE(D$12))</f>
+        <f>IF(G$12="X",SUM(I_10,I_11),VALUE(D$12))</f>
       </c>
     </row>
     <row r="13" customHeight="1" ht="15">
@@ -1538,22 +1424,20 @@
         <v>15</v>
       </c>
       <c r="D13" s="3">
-        <v>0.00</v>
+        <v>683672.00</v>
       </c>
       <c r="E13" s="4" t="e">
         <f>B$13 &amp; C$13</f>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s"/>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="3" t="e">
-        <f>IF(G$13="X",SUM(I_11),VALUE(D$13))</f>
+        <f>IF(G$13="X",SUM(I_),VALUE(D$13))</f>
       </c>
     </row>
     <row r="14" customHeight="1" ht="15">
@@ -1565,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="3">
-        <v>992707.00</v>
+        <v>779509.00</v>
       </c>
       <c r="E14" s="4" t="e">
         <f>B$14 &amp; C$14</f>
@@ -1575,7 +1459,7 @@
       </c>
       <c r="G14" s="1" t="s"/>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="3" t="e">
         <f>IF(G$14="X",SUM(I_),VALUE(D$14))</f>
@@ -1590,20 +1474,22 @@
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <v>683672.00</v>
+        <v>0.00</v>
       </c>
       <c r="E15" s="4" t="e">
         <f>B$15 &amp; C$15</f>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I15" s="3" t="e">
-        <f>IF(G$15="X",SUM(I_),VALUE(D$15))</f>
+        <f>IF(G$15="X",SUM(I_13,I_15),VALUE(D$15))</f>
       </c>
     </row>
     <row r="16" customHeight="1" ht="15">
@@ -1621,16 +1507,16 @@
         <f>B$16 &amp; C$16</f>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3" t="e">
-        <f>IF(G$16="X",SUM(I_14,I_20),VALUE(D$16))</f>
+        <f>IF(G$16="X",SUM(I_14),VALUE(D$16))</f>
       </c>
     </row>
     <row r="17" customHeight="1" ht="15">
@@ -1642,22 +1528,20 @@
         <v>19</v>
       </c>
       <c r="D17" s="3">
-        <v>0.00</v>
+        <v>403864.00</v>
       </c>
       <c r="E17" s="4" t="e">
         <f>B$17 &amp; C$17</f>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s"/>
       <c r="H17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="3" t="e">
-        <f>IF(G$17="X",SUM(I_15),VALUE(D$17))</f>
+        <f>IF(G$17="X",SUM(I_),VALUE(D$17))</f>
       </c>
     </row>
     <row r="18" customHeight="1" ht="15">
@@ -1675,16 +1559,16 @@
         <f>B$18 &amp; C$18</f>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I18" s="3" t="e">
-        <f>IF(G$18="X",SUM(I_16,I_17,I_18),VALUE(D$18))</f>
+        <f>IF(G$18="X",SUM(I_16),VALUE(D$18))</f>
       </c>
     </row>
     <row r="19" customHeight="1" ht="15">
@@ -1696,13 +1580,13 @@
         <v>21</v>
       </c>
       <c r="D19" s="3">
-        <v>779509.00</v>
+        <v>774285.00</v>
       </c>
       <c r="E19" s="4" t="e">
         <f>B$19 &amp; C$19</f>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="1" t="s"/>
       <c r="H19" s="1" t="s">
@@ -1721,20 +1605,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="3">
-        <v>403864.00</v>
+        <v>0.00</v>
       </c>
       <c r="E20" s="4" t="e">
         <f>B$20 &amp; C$20</f>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I20" s="3" t="e">
-        <f>IF(G$20="X",SUM(I_),VALUE(D$20))</f>
+        <f>IF(G$20="X",SUM(I_18,I_21,I_23),VALUE(D$20))</f>
       </c>
     </row>
     <row r="21" customHeight="1" ht="15">
@@ -1752,16 +1638,16 @@
         <f>B$21 &amp; C$21</f>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I21" s="3" t="e">
-        <f>IF(G$21="X",SUM(I_19),VALUE(D$21))</f>
+        <f>IF(G$21="X",SUM(I_19,I_20),VALUE(D$21))</f>
       </c>
     </row>
     <row r="22" customHeight="1" ht="15">
@@ -1770,16 +1656,16 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3">
-        <v>774285.00</v>
+        <v>763005.00</v>
       </c>
       <c r="E22" s="4" t="e">
         <f>B$22 &amp; C$22</f>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1" t="s"/>
       <c r="H22" s="1" t="s">
@@ -1795,20 +1681,20 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3">
-        <v>763005.00</v>
+        <v>601438.00</v>
       </c>
       <c r="E23" s="4" t="e">
         <f>B$23 &amp; C$23</f>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="s"/>
       <c r="H23" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I23" s="3" t="e">
         <f>IF(G$23="X",SUM(I_),VALUE(D$23))</f>
@@ -1820,7 +1706,7 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3">
         <v>0.00</v>
@@ -1829,16 +1715,16 @@
         <f>B$24 &amp; C$24</f>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3" t="e">
-        <f>IF(G$24="X",SUM(I_22,I_53),VALUE(D$24))</f>
+        <f>IF(G$24="X",SUM(I_22),VALUE(D$24))</f>
       </c>
     </row>
     <row r="25" customHeight="1" ht="15">
@@ -1847,25 +1733,23 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3">
-        <v>0.00</v>
+        <v>574669.00</v>
       </c>
       <c r="E25" s="4" t="e">
         <f>B$25 &amp; C$25</f>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s"/>
       <c r="H25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I25" s="3" t="e">
-        <f>IF(G$25="X",SUM(I_23),VALUE(D$25))</f>
+        <f>IF(G$25="X",SUM(I_),VALUE(D$25))</f>
       </c>
     </row>
     <row r="26" customHeight="1" ht="15">
@@ -1877,7 +1761,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="3">
-        <v>0.00</v>
+        <v>199734.00</v>
       </c>
       <c r="E26" s="4" t="e">
         <f>B$26 &amp; C$26</f>
@@ -1885,14 +1769,12 @@
       <c r="F26" s="1">
         <v>3</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="G26" s="1" t="s"/>
       <c r="H26" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I26" s="3" t="e">
-        <f>IF(G$26="X",SUM(I_24,I_25,I_26,I_39,I_44),VALUE(D$26))</f>
+        <f>IF(G$26="X",SUM(I_),VALUE(D$26))</f>
       </c>
     </row>
     <row r="27" customHeight="1" ht="15">
@@ -1904,20 +1786,22 @@
         <v>29</v>
       </c>
       <c r="D27" s="3">
-        <v>601438.00</v>
+        <v>0.00</v>
       </c>
       <c r="E27" s="4" t="e">
         <f>B$27 &amp; C$27</f>
       </c>
       <c r="F27" s="1">
-        <v>4</v>
-      </c>
-      <c r="G27" s="1" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I27" s="3" t="e">
-        <f>IF(G$27="X",SUM(I_),VALUE(D$27))</f>
+        <f>IF(G$27="X",SUM(I_25),VALUE(D$27))</f>
       </c>
     </row>
     <row r="28" customHeight="1" ht="15">
@@ -1929,748 +1813,20 @@
         <v>30</v>
       </c>
       <c r="D28" s="3">
-        <v>574669.00</v>
+        <v>47162.00</v>
       </c>
       <c r="E28" s="4" t="e">
         <f>B$28 &amp; C$28</f>
       </c>
       <c r="F28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s"/>
       <c r="H28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28" s="3" t="e">
         <f>IF(G$28="X",SUM(I_),VALUE(D$28))</f>
-      </c>
-    </row>
-    <row r="29" customHeight="1" ht="15">
-      <c r="A29" t="s"/>
-      <c r="B29" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E29" s="4" t="e">
-        <f>B$29 &amp; C$29</f>
-      </c>
-      <c r="F29" s="1">
-        <v>4</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="3" t="e">
-        <f>IF(G$29="X",SUM(I_27,I_29),VALUE(D$29))</f>
-      </c>
-    </row>
-    <row r="30" customHeight="1" ht="15">
-      <c r="A30" t="s"/>
-      <c r="B30" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E30" s="4" t="e">
-        <f>B$30 &amp; C$30</f>
-      </c>
-      <c r="F30" s="1">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="3" t="e">
-        <f>IF(G$30="X",SUM(I_28),VALUE(D$30))</f>
-      </c>
-    </row>
-    <row r="31" customHeight="1" ht="15">
-      <c r="A31" t="s"/>
-      <c r="B31" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="3">
-        <v>199734.00</v>
-      </c>
-      <c r="E31" s="4" t="e">
-        <f>B$31 &amp; C$31</f>
-      </c>
-      <c r="F31" s="1">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1" t="s"/>
-      <c r="H31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="3" t="e">
-        <f>IF(G$31="X",SUM(I_),VALUE(D$31))</f>
-      </c>
-    </row>
-    <row r="32" customHeight="1" ht="15">
-      <c r="A32" t="s"/>
-      <c r="B32" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E32" s="4" t="e">
-        <f>B$32 &amp; C$32</f>
-      </c>
-      <c r="F32" s="1">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="3" t="e">
-        <f>IF(G$32="X",SUM(I_30,I_33,I_35),VALUE(D$32))</f>
-      </c>
-    </row>
-    <row r="33" customHeight="1" ht="15">
-      <c r="A33" t="s"/>
-      <c r="B33" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E33" s="4" t="e">
-        <f>B$33 &amp; C$33</f>
-      </c>
-      <c r="F33" s="1">
-        <v>6</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="3" t="e">
-        <f>IF(G$33="X",SUM(I_31,I_32),VALUE(D$33))</f>
-      </c>
-    </row>
-    <row r="34" customHeight="1" ht="15">
-      <c r="A34" t="s"/>
-      <c r="B34" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="3">
-        <v>47162.00</v>
-      </c>
-      <c r="E34" s="4" t="e">
-        <f>B$34 &amp; C$34</f>
-      </c>
-      <c r="F34" s="1">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s"/>
-      <c r="H34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="3" t="e">
-        <f>IF(G$34="X",SUM(I_),VALUE(D$34))</f>
-      </c>
-    </row>
-    <row r="35" customHeight="1" ht="15">
-      <c r="A35" t="s"/>
-      <c r="B35" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="3">
-        <v>651054.00</v>
-      </c>
-      <c r="E35" s="4" t="e">
-        <f>B$35 &amp; C$35</f>
-      </c>
-      <c r="F35" s="1">
-        <v>7</v>
-      </c>
-      <c r="G35" s="1" t="s"/>
-      <c r="H35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="3" t="e">
-        <f>IF(G$35="X",SUM(I_),VALUE(D$35))</f>
-      </c>
-    </row>
-    <row r="36" customHeight="1" ht="15">
-      <c r="A36" t="s"/>
-      <c r="B36" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E36" s="4" t="e">
-        <f>B$36 &amp; C$36</f>
-      </c>
-      <c r="F36" s="1">
-        <v>6</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="3" t="e">
-        <f>IF(G$36="X",SUM(I_34),VALUE(D$36))</f>
-      </c>
-    </row>
-    <row r="37" customHeight="1" ht="15">
-      <c r="A37" t="s"/>
-      <c r="B37" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3">
-        <v>600136.00</v>
-      </c>
-      <c r="E37" s="4" t="e">
-        <f>B$37 &amp; C$37</f>
-      </c>
-      <c r="F37" s="1">
-        <v>7</v>
-      </c>
-      <c r="G37" s="1" t="s"/>
-      <c r="H37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="3" t="e">
-        <f>IF(G$37="X",SUM(I_),VALUE(D$37))</f>
-      </c>
-    </row>
-    <row r="38" customHeight="1" ht="15">
-      <c r="A38" t="s"/>
-      <c r="B38" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E38" s="4" t="e">
-        <f>B$38 &amp; C$38</f>
-      </c>
-      <c r="F38" s="1">
-        <v>6</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="3" t="e">
-        <f>IF(G$38="X",SUM(I_36),VALUE(D$38))</f>
-      </c>
-    </row>
-    <row r="39" customHeight="1" ht="15">
-      <c r="A39" t="s"/>
-      <c r="B39" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E39" s="4" t="e">
-        <f>B$39 &amp; C$39</f>
-      </c>
-      <c r="F39" s="1">
-        <v>7</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="3" t="e">
-        <f>IF(G$39="X",SUM(I_37,I_38),VALUE(D$39))</f>
-      </c>
-    </row>
-    <row r="40" customHeight="1" ht="15">
-      <c r="A40" t="s"/>
-      <c r="B40" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="3">
-        <v>750960.00</v>
-      </c>
-      <c r="E40" s="4" t="e">
-        <f>B$40 &amp; C$40</f>
-      </c>
-      <c r="F40" s="1">
-        <v>8</v>
-      </c>
-      <c r="G40" s="1" t="s"/>
-      <c r="H40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="3" t="e">
-        <f>IF(G$40="X",SUM(I_),VALUE(D$40))</f>
-      </c>
-    </row>
-    <row r="41" customHeight="1" ht="15">
-      <c r="A41" t="s"/>
-      <c r="B41" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="3">
-        <v>995090.00</v>
-      </c>
-      <c r="E41" s="4" t="e">
-        <f>B$41 &amp; C$41</f>
-      </c>
-      <c r="F41" s="1">
-        <v>8</v>
-      </c>
-      <c r="G41" s="1" t="s"/>
-      <c r="H41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="3" t="e">
-        <f>IF(G$41="X",SUM(I_),VALUE(D$41))</f>
-      </c>
-    </row>
-    <row r="42" customHeight="1" ht="15">
-      <c r="A42" t="s"/>
-      <c r="B42" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E42" s="4" t="e">
-        <f>B$42 &amp; C$42</f>
-      </c>
-      <c r="F42" s="1">
-        <v>4</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="3" t="e">
-        <f>IF(G$42="X",SUM(I_40,I_42),VALUE(D$42))</f>
-      </c>
-    </row>
-    <row r="43" customHeight="1" ht="15">
-      <c r="A43" t="s"/>
-      <c r="B43" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E43" s="4" t="e">
-        <f>B$43 &amp; C$43</f>
-      </c>
-      <c r="F43" s="1">
-        <v>5</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="3" t="e">
-        <f>IF(G$43="X",SUM(I_41),VALUE(D$43))</f>
-      </c>
-    </row>
-    <row r="44" customHeight="1" ht="15">
-      <c r="A44" t="s"/>
-      <c r="B44" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="3">
-        <v>748759.00</v>
-      </c>
-      <c r="E44" s="4" t="e">
-        <f>B$44 &amp; C$44</f>
-      </c>
-      <c r="F44" s="1">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1" t="s"/>
-      <c r="H44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="3" t="e">
-        <f>IF(G$44="X",SUM(I_),VALUE(D$44))</f>
-      </c>
-    </row>
-    <row r="45" customHeight="1" ht="15">
-      <c r="A45" t="s"/>
-      <c r="B45" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E45" s="4" t="e">
-        <f>B$45 &amp; C$45</f>
-      </c>
-      <c r="F45" s="1">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="3" t="e">
-        <f>IF(G$45="X",SUM(I_43),VALUE(D$45))</f>
-      </c>
-    </row>
-    <row r="46" customHeight="1" ht="15">
-      <c r="A46" t="s"/>
-      <c r="B46" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="3">
-        <v>15390.00</v>
-      </c>
-      <c r="E46" s="4" t="e">
-        <f>B$46 &amp; C$46</f>
-      </c>
-      <c r="F46" s="1">
-        <v>6</v>
-      </c>
-      <c r="G46" s="1" t="s"/>
-      <c r="H46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" s="3" t="e">
-        <f>IF(G$46="X",SUM(I_),VALUE(D$46))</f>
-      </c>
-    </row>
-    <row r="47" customHeight="1" ht="15">
-      <c r="A47" t="s"/>
-      <c r="B47" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E47" s="4" t="e">
-        <f>B$47 &amp; C$47</f>
-      </c>
-      <c r="F47" s="1">
-        <v>4</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="3" t="e">
-        <f>IF(G$47="X",SUM(I_45,I_48,I_51),VALUE(D$47))</f>
-      </c>
-    </row>
-    <row r="48" customHeight="1" ht="15">
-      <c r="A48" t="s"/>
-      <c r="B48" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E48" s="4" t="e">
-        <f>B$48 &amp; C$48</f>
-      </c>
-      <c r="F48" s="1">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="3" t="e">
-        <f>IF(G$48="X",SUM(I_46,I_47),VALUE(D$48))</f>
-      </c>
-    </row>
-    <row r="49" customHeight="1" ht="15">
-      <c r="A49" t="s"/>
-      <c r="B49" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="3">
-        <v>747327.00</v>
-      </c>
-      <c r="E49" s="4" t="e">
-        <f>B$49 &amp; C$49</f>
-      </c>
-      <c r="F49" s="1">
-        <v>6</v>
-      </c>
-      <c r="G49" s="1" t="s"/>
-      <c r="H49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I49" s="3" t="e">
-        <f>IF(G$49="X",SUM(I_),VALUE(D$49))</f>
-      </c>
-    </row>
-    <row r="50" customHeight="1" ht="15">
-      <c r="A50" t="s"/>
-      <c r="B50" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="3">
-        <v>897209.00</v>
-      </c>
-      <c r="E50" s="4" t="e">
-        <f>B$50 &amp; C$50</f>
-      </c>
-      <c r="F50" s="1">
-        <v>6</v>
-      </c>
-      <c r="G50" s="1" t="s"/>
-      <c r="H50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" s="3" t="e">
-        <f>IF(G$50="X",SUM(I_),VALUE(D$50))</f>
-      </c>
-    </row>
-    <row r="51" customHeight="1" ht="15">
-      <c r="A51" t="s"/>
-      <c r="B51" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E51" s="4" t="e">
-        <f>B$51 &amp; C$51</f>
-      </c>
-      <c r="F51" s="1">
-        <v>5</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51" s="3" t="e">
-        <f>IF(G$51="X",SUM(I_49,I_50),VALUE(D$51))</f>
-      </c>
-    </row>
-    <row r="52" customHeight="1" ht="15">
-      <c r="A52" t="s"/>
-      <c r="B52" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="3">
-        <v>179679.00</v>
-      </c>
-      <c r="E52" s="4" t="e">
-        <f>B$52 &amp; C$52</f>
-      </c>
-      <c r="F52" s="1">
-        <v>6</v>
-      </c>
-      <c r="G52" s="1" t="s"/>
-      <c r="H52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I52" s="3" t="e">
-        <f>IF(G$52="X",SUM(I_),VALUE(D$52))</f>
-      </c>
-    </row>
-    <row r="53" customHeight="1" ht="15">
-      <c r="A53" t="s"/>
-      <c r="B53" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="3">
-        <v>21452.00</v>
-      </c>
-      <c r="E53" s="4" t="e">
-        <f>B$53 &amp; C$53</f>
-      </c>
-      <c r="F53" s="1">
-        <v>6</v>
-      </c>
-      <c r="G53" s="1" t="s"/>
-      <c r="H53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I53" s="3" t="e">
-        <f>IF(G$53="X",SUM(I_),VALUE(D$53))</f>
-      </c>
-    </row>
-    <row r="54" customHeight="1" ht="15">
-      <c r="A54" t="s"/>
-      <c r="B54" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="E54" s="4" t="e">
-        <f>B$54 &amp; C$54</f>
-      </c>
-      <c r="F54" s="1">
-        <v>5</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I54" s="3" t="e">
-        <f>IF(G$54="X",SUM(I_52),VALUE(D$54))</f>
-      </c>
-    </row>
-    <row r="55" customHeight="1" ht="15">
-      <c r="A55" t="s"/>
-      <c r="B55" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="3">
-        <v>848191.00</v>
-      </c>
-      <c r="E55" s="4" t="e">
-        <f>B$55 &amp; C$55</f>
-      </c>
-      <c r="F55" s="1">
-        <v>6</v>
-      </c>
-      <c r="G55" s="1" t="s"/>
-      <c r="H55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" s="3" t="e">
-        <f>IF(G$55="X",SUM(I_),VALUE(D$55))</f>
-      </c>
-    </row>
-    <row r="56" customHeight="1" ht="15">
-      <c r="A56" t="s"/>
-      <c r="B56" s="3" t="e">
-        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="3">
-        <v>416485.00</v>
-      </c>
-      <c r="E56" s="4" t="e">
-        <f>B$56 &amp; C$56</f>
-      </c>
-      <c r="F56" s="1">
-        <v>2</v>
-      </c>
-      <c r="G56" s="1" t="s"/>
-      <c r="H56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="3" t="e">
-        <f>IF(G$56="X",SUM(I_),VALUE(D$56))</f>
       </c>
     </row>
   </sheetData>

--- a/xtt_demo/06-03_R.xlsx
+++ b/xtt_demo/06-03_R.xlsx
@@ -33,8 +33,31 @@
     <definedName name="I_23">'Rows'!$I$26</definedName>
     <definedName name="I_24">'Rows'!$I$27</definedName>
     <definedName name="I_25">'Rows'!$I$28</definedName>
+    <definedName name="I_26">'Rows'!$I$29</definedName>
+    <definedName name="I_27">'Rows'!$I$30</definedName>
+    <definedName name="I_28">'Rows'!$I$31</definedName>
+    <definedName name="I_29">'Rows'!$I$32</definedName>
     <definedName name="I_3">'Rows'!$I$6</definedName>
+    <definedName name="I_30">'Rows'!$I$33</definedName>
+    <definedName name="I_31">'Rows'!$I$34</definedName>
+    <definedName name="I_32">'Rows'!$I$35</definedName>
+    <definedName name="I_33">'Rows'!$I$36</definedName>
+    <definedName name="I_34">'Rows'!$I$37</definedName>
+    <definedName name="I_35">'Rows'!$I$38</definedName>
+    <definedName name="I_36">'Rows'!$I$39</definedName>
+    <definedName name="I_37">'Rows'!$I$40</definedName>
+    <definedName name="I_38">'Rows'!$I$41</definedName>
+    <definedName name="I_39">'Rows'!$I$42</definedName>
     <definedName name="I_4">'Rows'!$I$7</definedName>
+    <definedName name="I_40">'Rows'!$I$43</definedName>
+    <definedName name="I_41">'Rows'!$I$44</definedName>
+    <definedName name="I_42">'Rows'!$I$45</definedName>
+    <definedName name="I_43">'Rows'!$I$46</definedName>
+    <definedName name="I_44">'Rows'!$I$47</definedName>
+    <definedName name="I_45">'Rows'!$I$48</definedName>
+    <definedName name="I_46">'Rows'!$I$49</definedName>
+    <definedName name="I_47">'Rows'!$I$50</definedName>
+    <definedName name="I_48">'Rows'!$I$51</definedName>
     <definedName name="I_5">'Rows'!$I$8</definedName>
     <definedName name="I_6">'Rows'!$I$9</definedName>
     <definedName name="I_7">'Rows'!$I$10</definedName>
@@ -46,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Convert R-T to tree</t>
   </si>
@@ -69,76 +92,145 @@
     <t>R:</t>
   </si>
   <si>
-    <t>R:\Language</t>
-  </si>
-  <si>
-    <t>R:\Plugins</t>
-  </si>
-  <si>
-    <t>R:\Plugins\arc</t>
-  </si>
-  <si>
-    <t>R:\Plugins\exe</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\7Zip</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\7Zip\lang</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\MultiArc</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\MultiArc\FreeARC</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\MultiArc\Lang</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip\7z-AMD64</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip\7z-AMD64\Formats</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip\7z-X86</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip\7z-X86\Formats</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine0</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine0\Plugin</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine\Language</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine\Plugin</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\SLister</t>
-  </si>
-  <si>
-    <t>R:\Programs</t>
-  </si>
-  <si>
-    <t>R:\Programs\ImDiskVDD</t>
+    <t>R:\REPORT</t>
+  </si>
+  <si>
+    <t>R:\REPORT\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\docProps</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\drawings</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\drawings\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\media</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\docProps</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\docProps</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\drawings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\drawings\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\media</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\gif</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\FormParameters</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\docProps</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\my</t>
+  </si>
+  <si>
+    <t>R:\my\_rels</t>
   </si>
   <si>
     <t>Raw path</t>
@@ -1150,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="15.75">
@@ -1161,10 +1253,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>5</v>
@@ -1179,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15">
@@ -1200,11 +1292,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="s"/>
       <c r="I4" s="3" t="e">
-        <f>IF(G$4="X",SUM(I_2,I_3,I_24),VALUE(D$4))</f>
+        <f>IF(G$4="X",SUM(I_2,I_4,I_16,I_25),VALUE(D$4))</f>
       </c>
     </row>
     <row r="5" customHeight="1" ht="15">
@@ -1213,10 +1305,10 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3">
-        <v>675857.00</v>
+        <v>0.00</v>
       </c>
       <c r="E5" s="4" t="e">
         <f>B$5 &amp; C$5</f>
@@ -1224,12 +1316,14 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s"/>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="3" t="e">
-        <f>IF(G$5="X",SUM(I_),VALUE(D$5))</f>
+        <f>IF(G$5="X",SUM(I_3),VALUE(D$5))</f>
       </c>
     </row>
     <row r="6" customHeight="1" ht="15">
@@ -1238,25 +1332,23 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3">
-        <v>0.00</v>
+        <v>675857.00</v>
       </c>
       <c r="E6" s="4" t="e">
         <f>B$6 &amp; C$6</f>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s"/>
       <c r="H6" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I6" s="3" t="e">
-        <f>IF(G$6="X",SUM(I_4,I_5,I_6,I_17),VALUE(D$6))</f>
+        <f>IF(G$6="X",SUM(I_),VALUE(D$6))</f>
       </c>
     </row>
     <row r="7" customHeight="1" ht="15">
@@ -1265,23 +1357,25 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>556386.00</v>
+        <v>0.00</v>
       </c>
       <c r="E7" s="4" t="e">
         <f>B$7 &amp; C$7</f>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="e">
-        <f>IF(G$7="X",SUM(I_),VALUE(D$7))</f>
+        <f>IF(G$7="X",SUM(I_5,I_6,I_15),VALUE(D$7))</f>
       </c>
     </row>
     <row r="8" customHeight="1" ht="15">
@@ -1290,10 +1384,10 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>98268.00</v>
+        <v>556386.00</v>
       </c>
       <c r="E8" s="4" t="e">
         <f>B$8 &amp; C$8</f>
@@ -1303,7 +1397,7 @@
       </c>
       <c r="G8" s="1" t="s"/>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3" t="e">
         <f>IF(G$8="X",SUM(I_),VALUE(D$8))</f>
@@ -1315,7 +1409,7 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
         <v>0.00</v>
@@ -1327,13 +1421,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3" t="e">
-        <f>IF(G$9="X",SUM(I_7,I_9,I_12),VALUE(D$9))</f>
+        <f>IF(G$9="X",SUM(I_7,I_9,I_10,I_11,I_12,I_14),VALUE(D$9))</f>
       </c>
     </row>
     <row r="10" customHeight="1" ht="15">
@@ -1354,10 +1448,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="3" t="e">
         <f>IF(G$10="X",SUM(I_8),VALUE(D$10))</f>
@@ -1372,7 +1466,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>992707.00</v>
+        <v>98268.00</v>
       </c>
       <c r="E11" s="4" t="e">
         <f>B$11 &amp; C$11</f>
@@ -1397,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3">
-        <v>0.00</v>
+        <v>992707.00</v>
       </c>
       <c r="E12" s="4" t="e">
         <f>B$12 &amp; C$12</f>
@@ -1405,14 +1499,12 @@
       <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="G12" s="1" t="s"/>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="3" t="e">
-        <f>IF(G$12="X",SUM(I_10,I_11),VALUE(D$12))</f>
+        <f>IF(G$12="X",SUM(I_),VALUE(D$12))</f>
       </c>
     </row>
     <row r="13" customHeight="1" ht="15">
@@ -1430,11 +1522,11 @@
         <f>B$13 &amp; C$13</f>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s"/>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3" t="e">
         <f>IF(G$13="X",SUM(I_),VALUE(D$13))</f>
@@ -1455,11 +1547,11 @@
         <f>B$14 &amp; C$14</f>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="s"/>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I14" s="3" t="e">
         <f>IF(G$14="X",SUM(I_),VALUE(D$14))</f>
@@ -1483,13 +1575,13 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="3" t="e">
-        <f>IF(G$15="X",SUM(I_13,I_15),VALUE(D$15))</f>
+        <f>IF(G$15="X",SUM(I_13),VALUE(D$15))</f>
       </c>
     </row>
     <row r="16" customHeight="1" ht="15">
@@ -1501,7 +1593,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="3">
-        <v>0.00</v>
+        <v>403864.00</v>
       </c>
       <c r="E16" s="4" t="e">
         <f>B$16 &amp; C$16</f>
@@ -1509,14 +1601,12 @@
       <c r="F16" s="1">
         <v>4</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="G16" s="1" t="s"/>
       <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="3" t="e">
-        <f>IF(G$16="X",SUM(I_14),VALUE(D$16))</f>
+        <f>IF(G$16="X",SUM(I_),VALUE(D$16))</f>
       </c>
     </row>
     <row r="17" customHeight="1" ht="15">
@@ -1525,20 +1615,20 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>403864.00</v>
+        <v>774285.00</v>
       </c>
       <c r="E17" s="4" t="e">
         <f>B$17 &amp; C$17</f>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s"/>
       <c r="H17" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I17" s="3" t="e">
         <f>IF(G$17="X",SUM(I_),VALUE(D$17))</f>
@@ -1550,25 +1640,23 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3">
-        <v>0.00</v>
+        <v>763005.00</v>
       </c>
       <c r="E18" s="4" t="e">
         <f>B$18 &amp; C$18</f>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s"/>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I18" s="3" t="e">
-        <f>IF(G$18="X",SUM(I_16),VALUE(D$18))</f>
+        <f>IF(G$18="X",SUM(I_),VALUE(D$18))</f>
       </c>
     </row>
     <row r="19" customHeight="1" ht="15">
@@ -1577,23 +1665,25 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3">
-        <v>774285.00</v>
+        <v>0.00</v>
       </c>
       <c r="E19" s="4" t="e">
         <f>B$19 &amp; C$19</f>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I19" s="3" t="e">
-        <f>IF(G$19="X",SUM(I_),VALUE(D$19))</f>
+        <f>IF(G$19="X",SUM(I_17,I_18,I_24),VALUE(D$19))</f>
       </c>
     </row>
     <row r="20" customHeight="1" ht="15">
@@ -1602,10 +1692,10 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3">
-        <v>0.00</v>
+        <v>601438.00</v>
       </c>
       <c r="E20" s="4" t="e">
         <f>B$20 &amp; C$20</f>
@@ -1613,14 +1703,12 @@
       <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="G20" s="1" t="s"/>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I20" s="3" t="e">
-        <f>IF(G$20="X",SUM(I_18,I_21,I_23),VALUE(D$20))</f>
+        <f>IF(G$20="X",SUM(I_),VALUE(D$20))</f>
       </c>
     </row>
     <row r="21" customHeight="1" ht="15">
@@ -1629,7 +1717,7 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3">
         <v>0.00</v>
@@ -1638,16 +1726,16 @@
         <f>B$21 &amp; C$21</f>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I21" s="3" t="e">
-        <f>IF(G$21="X",SUM(I_19,I_20),VALUE(D$21))</f>
+        <f>IF(G$21="X",SUM(I_19,I_20,I_21,I_23),VALUE(D$21))</f>
       </c>
     </row>
     <row r="22" customHeight="1" ht="15">
@@ -1656,20 +1744,20 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3">
-        <v>763005.00</v>
+        <v>574669.00</v>
       </c>
       <c r="E22" s="4" t="e">
         <f>B$22 &amp; C$22</f>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="s"/>
       <c r="H22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="3" t="e">
         <f>IF(G$22="X",SUM(I_),VALUE(D$22))</f>
@@ -1681,20 +1769,20 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3">
-        <v>601438.00</v>
+        <v>199734.00</v>
       </c>
       <c r="E23" s="4" t="e">
         <f>B$23 &amp; C$23</f>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1" t="s"/>
       <c r="H23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="3" t="e">
         <f>IF(G$23="X",SUM(I_),VALUE(D$23))</f>
@@ -1706,7 +1794,7 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3">
         <v>0.00</v>
@@ -1718,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>22</v>
@@ -1733,10 +1821,10 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3">
-        <v>574669.00</v>
+        <v>47162.00</v>
       </c>
       <c r="E25" s="4" t="e">
         <f>B$25 &amp; C$25</f>
@@ -1746,7 +1834,7 @@
       </c>
       <c r="G25" s="1" t="s"/>
       <c r="H25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I25" s="3" t="e">
         <f>IF(G$25="X",SUM(I_),VALUE(D$25))</f>
@@ -1758,10 +1846,10 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3">
-        <v>199734.00</v>
+        <v>651054.00</v>
       </c>
       <c r="E26" s="4" t="e">
         <f>B$26 &amp; C$26</f>
@@ -1783,25 +1871,23 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3">
-        <v>0.00</v>
+        <v>600136.00</v>
       </c>
       <c r="E27" s="4" t="e">
         <f>B$27 &amp; C$27</f>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s"/>
       <c r="H27" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I27" s="3" t="e">
-        <f>IF(G$27="X",SUM(I_25),VALUE(D$27))</f>
+        <f>IF(G$27="X",SUM(I_),VALUE(D$27))</f>
       </c>
     </row>
     <row r="28" customHeight="1" ht="15">
@@ -1810,23 +1896,614 @@
         <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3">
-        <v>47162.00</v>
+        <v>0.00</v>
       </c>
       <c r="E28" s="4" t="e">
         <f>B$28 &amp; C$28</f>
       </c>
       <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="3" t="e">
+        <f>IF(G$28="X",SUM(I_26,I_38,I_39),VALUE(D$28))</f>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="15">
+      <c r="A29" t="s"/>
+      <c r="B29" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="E29" s="4" t="e">
+        <f>B$29 &amp; C$29</f>
+      </c>
+      <c r="F29" s="1">
         <v>2</v>
       </c>
-      <c r="G28" s="1" t="s"/>
-      <c r="H28" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="3" t="e">
+        <f>IF(G$29="X",SUM(I_27,I_28,I_37),VALUE(D$29))</f>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="15">
+      <c r="A30" t="s"/>
+      <c r="B30" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3">
+        <v>750960.00</v>
+      </c>
+      <c r="E30" s="4" t="e">
+        <f>B$30 &amp; C$30</f>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s"/>
+      <c r="H30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="3" t="e">
-        <f>IF(G$28="X",SUM(I_),VALUE(D$28))</f>
+      <c r="I30" s="3" t="e">
+        <f>IF(G$30="X",SUM(I_),VALUE(D$30))</f>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="15">
+      <c r="A31" t="s"/>
+      <c r="B31" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="E31" s="4" t="e">
+        <f>B$31 &amp; C$31</f>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="3" t="e">
+        <f>IF(G$31="X",SUM(I_29,I_31,I_32,I_33,I_34,I_36),VALUE(D$31))</f>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="15">
+      <c r="A32" t="s"/>
+      <c r="B32" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="E32" s="4" t="e">
+        <f>B$32 &amp; C$32</f>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="3" t="e">
+        <f>IF(G$32="X",SUM(I_30),VALUE(D$32))</f>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="15">
+      <c r="A33" t="s"/>
+      <c r="B33" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3">
+        <v>995090.00</v>
+      </c>
+      <c r="E33" s="4" t="e">
+        <f>B$33 &amp; C$33</f>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s"/>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="3" t="e">
+        <f>IF(G$33="X",SUM(I_),VALUE(D$33))</f>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="15">
+      <c r="A34" t="s"/>
+      <c r="B34" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="3">
+        <v>748759.00</v>
+      </c>
+      <c r="E34" s="4" t="e">
+        <f>B$34 &amp; C$34</f>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="s"/>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="3" t="e">
+        <f>IF(G$34="X",SUM(I_),VALUE(D$34))</f>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="15">
+      <c r="A35" t="s"/>
+      <c r="B35" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="3">
+        <v>15390.00</v>
+      </c>
+      <c r="E35" s="4" t="e">
+        <f>B$35 &amp; C$35</f>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1" t="s"/>
+      <c r="H35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="3" t="e">
+        <f>IF(G$35="X",SUM(I_),VALUE(D$35))</f>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="15">
+      <c r="A36" t="s"/>
+      <c r="B36" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="3">
+        <v>747327.00</v>
+      </c>
+      <c r="E36" s="4" t="e">
+        <f>B$36 &amp; C$36</f>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1" t="s"/>
+      <c r="H36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="3" t="e">
+        <f>IF(G$36="X",SUM(I_),VALUE(D$36))</f>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="15">
+      <c r="A37" t="s"/>
+      <c r="B37" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="E37" s="4" t="e">
+        <f>B$37 &amp; C$37</f>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="3" t="e">
+        <f>IF(G$37="X",SUM(I_35),VALUE(D$37))</f>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="15">
+      <c r="A38" t="s"/>
+      <c r="B38" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="3">
+        <v>897209.00</v>
+      </c>
+      <c r="E38" s="4" t="e">
+        <f>B$38 &amp; C$38</f>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s"/>
+      <c r="H38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="3" t="e">
+        <f>IF(G$38="X",SUM(I_),VALUE(D$38))</f>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="15">
+      <c r="A39" t="s"/>
+      <c r="B39" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="3">
+        <v>179679.00</v>
+      </c>
+      <c r="E39" s="4" t="e">
+        <f>B$39 &amp; C$39</f>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1" t="s"/>
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="3" t="e">
+        <f>IF(G$39="X",SUM(I_),VALUE(D$39))</f>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="15">
+      <c r="A40" t="s"/>
+      <c r="B40" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3">
+        <v>21452.00</v>
+      </c>
+      <c r="E40" s="4" t="e">
+        <f>B$40 &amp; C$40</f>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s"/>
+      <c r="H40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="3" t="e">
+        <f>IF(G$40="X",SUM(I_),VALUE(D$40))</f>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="15">
+      <c r="A41" t="s"/>
+      <c r="B41" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="3">
+        <v>848191.00</v>
+      </c>
+      <c r="E41" s="4" t="e">
+        <f>B$41 &amp; C$41</f>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s"/>
+      <c r="H41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="3" t="e">
+        <f>IF(G$41="X",SUM(I_),VALUE(D$41))</f>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="15">
+      <c r="A42" t="s"/>
+      <c r="B42" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="E42" s="4" t="e">
+        <f>B$42 &amp; C$42</f>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="3" t="e">
+        <f>IF(G$42="X",SUM(I_40,I_41,I_42,I_48),VALUE(D$42))</f>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="15">
+      <c r="A43" t="s"/>
+      <c r="B43" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="3">
+        <v>416485.00</v>
+      </c>
+      <c r="E43" s="4" t="e">
+        <f>B$43 &amp; C$43</f>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s"/>
+      <c r="H43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="3" t="e">
+        <f>IF(G$43="X",SUM(I_),VALUE(D$43))</f>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="15">
+      <c r="A44" t="s"/>
+      <c r="B44" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3">
+        <v>426378.00</v>
+      </c>
+      <c r="E44" s="4" t="e">
+        <f>B$44 &amp; C$44</f>
+      </c>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s"/>
+      <c r="H44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="3" t="e">
+        <f>IF(G$44="X",SUM(I_),VALUE(D$44))</f>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="15">
+      <c r="A45" t="s"/>
+      <c r="B45" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="E45" s="4" t="e">
+        <f>B$45 &amp; C$45</f>
+      </c>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="3" t="e">
+        <f>IF(G$45="X",SUM(I_43,I_44,I_45,I_47),VALUE(D$45))</f>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="15">
+      <c r="A46" t="s"/>
+      <c r="B46" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3">
+        <v>84744.00</v>
+      </c>
+      <c r="E46" s="4" t="e">
+        <f>B$46 &amp; C$46</f>
+      </c>
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1" t="s"/>
+      <c r="H46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="3" t="e">
+        <f>IF(G$46="X",SUM(I_),VALUE(D$46))</f>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="15">
+      <c r="A47" t="s"/>
+      <c r="B47" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="3">
+        <v>151522.00</v>
+      </c>
+      <c r="E47" s="4" t="e">
+        <f>B$47 &amp; C$47</f>
+      </c>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s"/>
+      <c r="H47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="3" t="e">
+        <f>IF(G$47="X",SUM(I_),VALUE(D$47))</f>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="15">
+      <c r="A48" t="s"/>
+      <c r="B48" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="E48" s="4" t="e">
+        <f>B$48 &amp; C$48</f>
+      </c>
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="3" t="e">
+        <f>IF(G$48="X",SUM(I_46),VALUE(D$48))</f>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="15">
+      <c r="A49" t="s"/>
+      <c r="B49" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="3">
+        <v>622004.00</v>
+      </c>
+      <c r="E49" s="4" t="e">
+        <f>B$49 &amp; C$49</f>
+      </c>
+      <c r="F49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s"/>
+      <c r="H49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" s="3" t="e">
+        <f>IF(G$49="X",SUM(I_),VALUE(D$49))</f>
+      </c>
+    </row>
+    <row r="50" customHeight="1" ht="15">
+      <c r="A50" t="s"/>
+      <c r="B50" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="3">
+        <v>648236.00</v>
+      </c>
+      <c r="E50" s="4" t="e">
+        <f>B$50 &amp; C$50</f>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1" t="s"/>
+      <c r="H50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="3" t="e">
+        <f>IF(G$50="X",SUM(I_),VALUE(D$50))</f>
+      </c>
+    </row>
+    <row r="51" customHeight="1" ht="15">
+      <c r="A51" t="s"/>
+      <c r="B51" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="3">
+        <v>886723.00</v>
+      </c>
+      <c r="E51" s="4" t="e">
+        <f>B$51 &amp; C$51</f>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="s"/>
+      <c r="H51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="3" t="e">
+        <f>IF(G$51="X",SUM(I_),VALUE(D$51))</f>
       </c>
     </row>
   </sheetData>

--- a/xtt_demo/06-03_R.xlsx
+++ b/xtt_demo/06-03_R.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\docu_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Convert R-T to tree</t>
   </si>
@@ -239,7 +239,10 @@
     <t>Raw sum</t>
   </si>
   <si>
-    <t>Sum change last green elements</t>
+    <t>Sum by FM change last green elements</t>
+  </si>
+  <si>
+    <t>Sum staticly using ;func=SUM</t>
   </si>
   <si>
     <t>Title</t>
@@ -831,7 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -844,9 +847,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,10 +1218,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1235,6 +1235,7 @@
     <col customWidth="1" max="7" min="7" width="15.7109375"/>
     <col customWidth="1" max="8" min="8" width="50.7109375"/>
     <col customWidth="1" max="9" min="9" width="19.5703125"/>
+    <col customWidth="1" max="10" min="10" width="19.5703125"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="15">
@@ -1242,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="15.75">
@@ -1264,14 +1265,17 @@
       <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>56</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15">
@@ -1283,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3">
-        <v>0.00</v>
+        <v>11248005.00</v>
       </c>
       <c r="E4" s="4" t="e">
         <f>B$4 &amp; C$4</f>
@@ -1292,12 +1296,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s"/>
       <c r="I4" s="3" t="e">
         <f>IF(G$4="X",SUM(I_2,I_4,I_16,I_25),VALUE(D$4))</f>
       </c>
+      <c r="J4" s="3">
+        <v>11248005.00</v>
+      </c>
     </row>
     <row r="5" customHeight="1" ht="15">
       <c r="A5" t="s"/>
@@ -1308,7 +1315,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="3">
-        <v>0.00</v>
+        <v>597144.00</v>
       </c>
       <c r="E5" s="4" t="e">
         <f>B$5 &amp; C$5</f>
@@ -1317,13 +1324,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="3" t="e">
         <f>IF(G$5="X",SUM(I_3),VALUE(D$5))</f>
+      </c>
+      <c r="J5" s="3">
+        <v>597144.00</v>
       </c>
     </row>
     <row r="6" customHeight="1" ht="15">
@@ -1335,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="3">
-        <v>675857.00</v>
+        <v>597144.00</v>
       </c>
       <c r="E6" s="4" t="e">
         <f>B$6 &amp; C$6</f>
@@ -1350,6 +1360,9 @@
       <c r="I6" s="3" t="e">
         <f>IF(G$6="X",SUM(I_),VALUE(D$6))</f>
       </c>
+      <c r="J6" s="3">
+        <v>597144.00</v>
+      </c>
     </row>
     <row r="7" customHeight="1" ht="15">
       <c r="A7" t="s"/>
@@ -1360,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>0.00</v>
+        <v>3625607.00</v>
       </c>
       <c r="E7" s="4" t="e">
         <f>B$7 &amp; C$7</f>
@@ -1369,13 +1382,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="3" t="e">
         <f>IF(G$7="X",SUM(I_5,I_6,I_15),VALUE(D$7))</f>
+      </c>
+      <c r="J7" s="3">
+        <v>3625607.00</v>
       </c>
     </row>
     <row r="8" customHeight="1" ht="15">
@@ -1387,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>556386.00</v>
+        <v>502146.00</v>
       </c>
       <c r="E8" s="4" t="e">
         <f>B$8 &amp; C$8</f>
@@ -1402,6 +1418,9 @@
       <c r="I8" s="3" t="e">
         <f>IF(G$8="X",SUM(I_),VALUE(D$8))</f>
       </c>
+      <c r="J8" s="3">
+        <v>502146.00</v>
+      </c>
     </row>
     <row r="9" customHeight="1" ht="15">
       <c r="A9" t="s"/>
@@ -1412,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>0.00</v>
+        <v>2663061.00</v>
       </c>
       <c r="E9" s="4" t="e">
         <f>B$9 &amp; C$9</f>
@@ -1421,13 +1440,16 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="e">
         <f>IF(G$9="X",SUM(I_7,I_9,I_10,I_11,I_12,I_14),VALUE(D$9))</f>
+      </c>
+      <c r="J9" s="3">
+        <v>2663061.00</v>
       </c>
     </row>
     <row r="10" customHeight="1" ht="15">
@@ -1439,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <v>0.00</v>
+        <v>227675.00</v>
       </c>
       <c r="E10" s="4" t="e">
         <f>B$10 &amp; C$10</f>
@@ -1448,13 +1470,16 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="3" t="e">
         <f>IF(G$10="X",SUM(I_8),VALUE(D$10))</f>
+      </c>
+      <c r="J10" s="3">
+        <v>227675.00</v>
       </c>
     </row>
     <row r="11" customHeight="1" ht="15">
@@ -1466,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>98268.00</v>
+        <v>227675.00</v>
       </c>
       <c r="E11" s="4" t="e">
         <f>B$11 &amp; C$11</f>
@@ -1481,6 +1506,9 @@
       <c r="I11" s="3" t="e">
         <f>IF(G$11="X",SUM(I_),VALUE(D$11))</f>
       </c>
+      <c r="J11" s="3">
+        <v>227675.00</v>
+      </c>
     </row>
     <row r="12" customHeight="1" ht="15">
       <c r="A12" t="s"/>
@@ -1491,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3">
-        <v>992707.00</v>
+        <v>771720.00</v>
       </c>
       <c r="E12" s="4" t="e">
         <f>B$12 &amp; C$12</f>
@@ -1506,6 +1534,9 @@
       <c r="I12" s="3" t="e">
         <f>IF(G$12="X",SUM(I_),VALUE(D$12))</f>
       </c>
+      <c r="J12" s="3">
+        <v>771720.00</v>
+      </c>
     </row>
     <row r="13" customHeight="1" ht="15">
       <c r="A13" t="s"/>
@@ -1516,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3">
-        <v>683672.00</v>
+        <v>303138.00</v>
       </c>
       <c r="E13" s="4" t="e">
         <f>B$13 &amp; C$13</f>
@@ -1531,6 +1562,9 @@
       <c r="I13" s="3" t="e">
         <f>IF(G$13="X",SUM(I_),VALUE(D$13))</f>
       </c>
+      <c r="J13" s="3">
+        <v>303138.00</v>
+      </c>
     </row>
     <row r="14" customHeight="1" ht="15">
       <c r="A14" t="s"/>
@@ -1541,7 +1575,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="3">
-        <v>779509.00</v>
+        <v>44522.00</v>
       </c>
       <c r="E14" s="4" t="e">
         <f>B$14 &amp; C$14</f>
@@ -1556,6 +1590,9 @@
       <c r="I14" s="3" t="e">
         <f>IF(G$14="X",SUM(I_),VALUE(D$14))</f>
       </c>
+      <c r="J14" s="3">
+        <v>44522.00</v>
+      </c>
     </row>
     <row r="15" customHeight="1" ht="15">
       <c r="A15" t="s"/>
@@ -1566,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <v>0.00</v>
+        <v>947679.00</v>
       </c>
       <c r="E15" s="4" t="e">
         <f>B$15 &amp; C$15</f>
@@ -1575,13 +1612,16 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="3" t="e">
         <f>IF(G$15="X",SUM(I_13),VALUE(D$15))</f>
+      </c>
+      <c r="J15" s="3">
+        <v>947679.00</v>
       </c>
     </row>
     <row r="16" customHeight="1" ht="15">
@@ -1593,7 +1633,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="3">
-        <v>403864.00</v>
+        <v>947679.00</v>
       </c>
       <c r="E16" s="4" t="e">
         <f>B$16 &amp; C$16</f>
@@ -1608,6 +1648,9 @@
       <c r="I16" s="3" t="e">
         <f>IF(G$16="X",SUM(I_),VALUE(D$16))</f>
       </c>
+      <c r="J16" s="3">
+        <v>947679.00</v>
+      </c>
     </row>
     <row r="17" customHeight="1" ht="15">
       <c r="A17" t="s"/>
@@ -1618,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>774285.00</v>
+        <v>368327.00</v>
       </c>
       <c r="E17" s="4" t="e">
         <f>B$17 &amp; C$17</f>
@@ -1633,6 +1676,9 @@
       <c r="I17" s="3" t="e">
         <f>IF(G$17="X",SUM(I_),VALUE(D$17))</f>
       </c>
+      <c r="J17" s="3">
+        <v>368327.00</v>
+      </c>
     </row>
     <row r="18" customHeight="1" ht="15">
       <c r="A18" t="s"/>
@@ -1643,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="3">
-        <v>763005.00</v>
+        <v>460400.00</v>
       </c>
       <c r="E18" s="4" t="e">
         <f>B$18 &amp; C$18</f>
@@ -1658,6 +1704,9 @@
       <c r="I18" s="3" t="e">
         <f>IF(G$18="X",SUM(I_),VALUE(D$18))</f>
       </c>
+      <c r="J18" s="3">
+        <v>460400.00</v>
+      </c>
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="A19" t="s"/>
@@ -1668,7 +1717,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="3">
-        <v>0.00</v>
+        <v>2430242.00</v>
       </c>
       <c r="E19" s="4" t="e">
         <f>B$19 &amp; C$19</f>
@@ -1677,13 +1726,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="3" t="e">
         <f>IF(G$19="X",SUM(I_17,I_18,I_24),VALUE(D$19))</f>
+      </c>
+      <c r="J19" s="3">
+        <v>2430242.00</v>
       </c>
     </row>
     <row r="20" customHeight="1" ht="15">
@@ -1695,7 +1747,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="3">
-        <v>601438.00</v>
+        <v>552585.00</v>
       </c>
       <c r="E20" s="4" t="e">
         <f>B$20 &amp; C$20</f>
@@ -1710,6 +1762,9 @@
       <c r="I20" s="3" t="e">
         <f>IF(G$20="X",SUM(I_),VALUE(D$20))</f>
       </c>
+      <c r="J20" s="3">
+        <v>552585.00</v>
+      </c>
     </row>
     <row r="21" customHeight="1" ht="15">
       <c r="A21" t="s"/>
@@ -1720,7 +1775,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="3">
-        <v>0.00</v>
+        <v>1329976.00</v>
       </c>
       <c r="E21" s="4" t="e">
         <f>B$21 &amp; C$21</f>
@@ -1729,13 +1784,16 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="3" t="e">
         <f>IF(G$21="X",SUM(I_19,I_20,I_21,I_23),VALUE(D$21))</f>
+      </c>
+      <c r="J21" s="3">
+        <v>1329976.00</v>
       </c>
     </row>
     <row r="22" customHeight="1" ht="15">
@@ -1747,7 +1805,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="3">
-        <v>574669.00</v>
+        <v>215971.00</v>
       </c>
       <c r="E22" s="4" t="e">
         <f>B$22 &amp; C$22</f>
@@ -1762,6 +1820,9 @@
       <c r="I22" s="3" t="e">
         <f>IF(G$22="X",SUM(I_),VALUE(D$22))</f>
       </c>
+      <c r="J22" s="3">
+        <v>215971.00</v>
+      </c>
     </row>
     <row r="23" customHeight="1" ht="15">
       <c r="A23" t="s"/>
@@ -1772,7 +1833,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="3">
-        <v>199734.00</v>
+        <v>226094.00</v>
       </c>
       <c r="E23" s="4" t="e">
         <f>B$23 &amp; C$23</f>
@@ -1787,6 +1848,9 @@
       <c r="I23" s="3" t="e">
         <f>IF(G$23="X",SUM(I_),VALUE(D$23))</f>
       </c>
+      <c r="J23" s="3">
+        <v>226094.00</v>
+      </c>
     </row>
     <row r="24" customHeight="1" ht="15">
       <c r="A24" t="s"/>
@@ -1797,7 +1861,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="3">
-        <v>0.00</v>
+        <v>249030.00</v>
       </c>
       <c r="E24" s="4" t="e">
         <f>B$24 &amp; C$24</f>
@@ -1806,13 +1870,16 @@
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="3" t="e">
         <f>IF(G$24="X",SUM(I_22),VALUE(D$24))</f>
+      </c>
+      <c r="J24" s="3">
+        <v>249030.00</v>
       </c>
     </row>
     <row r="25" customHeight="1" ht="15">
@@ -1824,7 +1891,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="3">
-        <v>47162.00</v>
+        <v>249030.00</v>
       </c>
       <c r="E25" s="4" t="e">
         <f>B$25 &amp; C$25</f>
@@ -1839,6 +1906,9 @@
       <c r="I25" s="3" t="e">
         <f>IF(G$25="X",SUM(I_),VALUE(D$25))</f>
       </c>
+      <c r="J25" s="3">
+        <v>249030.00</v>
+      </c>
     </row>
     <row r="26" customHeight="1" ht="15">
       <c r="A26" t="s"/>
@@ -1849,7 +1919,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="3">
-        <v>651054.00</v>
+        <v>638881.00</v>
       </c>
       <c r="E26" s="4" t="e">
         <f>B$26 &amp; C$26</f>
@@ -1864,6 +1934,9 @@
       <c r="I26" s="3" t="e">
         <f>IF(G$26="X",SUM(I_),VALUE(D$26))</f>
       </c>
+      <c r="J26" s="3">
+        <v>638881.00</v>
+      </c>
     </row>
     <row r="27" customHeight="1" ht="15">
       <c r="A27" t="s"/>
@@ -1874,7 +1947,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="3">
-        <v>600136.00</v>
+        <v>547681.00</v>
       </c>
       <c r="E27" s="4" t="e">
         <f>B$27 &amp; C$27</f>
@@ -1889,6 +1962,9 @@
       <c r="I27" s="3" t="e">
         <f>IF(G$27="X",SUM(I_),VALUE(D$27))</f>
       </c>
+      <c r="J27" s="3">
+        <v>547681.00</v>
+      </c>
     </row>
     <row r="28" customHeight="1" ht="15">
       <c r="A28" t="s"/>
@@ -1899,7 +1975,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="3">
-        <v>0.00</v>
+        <v>4595012.00</v>
       </c>
       <c r="E28" s="4" t="e">
         <f>B$28 &amp; C$28</f>
@@ -1908,13 +1984,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="3" t="e">
         <f>IF(G$28="X",SUM(I_26,I_38,I_39),VALUE(D$28))</f>
+      </c>
+      <c r="J28" s="3">
+        <v>4595012.00</v>
       </c>
     </row>
     <row r="29" customHeight="1" ht="15">
@@ -1926,7 +2005,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="3">
-        <v>0.00</v>
+        <v>2233406.00</v>
       </c>
       <c r="E29" s="4" t="e">
         <f>B$29 &amp; C$29</f>
@@ -1935,13 +2014,16 @@
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="3" t="e">
         <f>IF(G$29="X",SUM(I_27,I_28,I_37),VALUE(D$29))</f>
+      </c>
+      <c r="J29" s="3">
+        <v>2233406.00</v>
       </c>
     </row>
     <row r="30" customHeight="1" ht="15">
@@ -1953,7 +2035,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="3">
-        <v>750960.00</v>
+        <v>40618.00</v>
       </c>
       <c r="E30" s="4" t="e">
         <f>B$30 &amp; C$30</f>
@@ -1968,6 +2050,9 @@
       <c r="I30" s="3" t="e">
         <f>IF(G$30="X",SUM(I_),VALUE(D$30))</f>
       </c>
+      <c r="J30" s="3">
+        <v>40618.00</v>
+      </c>
     </row>
     <row r="31" customHeight="1" ht="15">
       <c r="A31" t="s"/>
@@ -1978,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="3">
-        <v>0.00</v>
+        <v>2073153.00</v>
       </c>
       <c r="E31" s="4" t="e">
         <f>B$31 &amp; C$31</f>
@@ -1987,13 +2072,16 @@
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I31" s="3" t="e">
         <f>IF(G$31="X",SUM(I_29,I_31,I_32,I_33,I_34,I_36),VALUE(D$31))</f>
+      </c>
+      <c r="J31" s="3">
+        <v>2073153.00</v>
       </c>
     </row>
     <row r="32" customHeight="1" ht="15">
@@ -2005,7 +2093,7 @@
         <v>34</v>
       </c>
       <c r="D32" s="3">
-        <v>0.00</v>
+        <v>68966.00</v>
       </c>
       <c r="E32" s="4" t="e">
         <f>B$32 &amp; C$32</f>
@@ -2014,13 +2102,16 @@
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I32" s="3" t="e">
         <f>IF(G$32="X",SUM(I_30),VALUE(D$32))</f>
+      </c>
+      <c r="J32" s="3">
+        <v>68966.00</v>
       </c>
     </row>
     <row r="33" customHeight="1" ht="15">
@@ -2032,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="3">
-        <v>995090.00</v>
+        <v>68966.00</v>
       </c>
       <c r="E33" s="4" t="e">
         <f>B$33 &amp; C$33</f>
@@ -2047,6 +2138,9 @@
       <c r="I33" s="3" t="e">
         <f>IF(G$33="X",SUM(I_),VALUE(D$33))</f>
       </c>
+      <c r="J33" s="3">
+        <v>68966.00</v>
+      </c>
     </row>
     <row r="34" customHeight="1" ht="15">
       <c r="A34" t="s"/>
@@ -2057,7 +2151,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="3">
-        <v>748759.00</v>
+        <v>51860.00</v>
       </c>
       <c r="E34" s="4" t="e">
         <f>B$34 &amp; C$34</f>
@@ -2072,6 +2166,9 @@
       <c r="I34" s="3" t="e">
         <f>IF(G$34="X",SUM(I_),VALUE(D$34))</f>
       </c>
+      <c r="J34" s="3">
+        <v>51860.00</v>
+      </c>
     </row>
     <row r="35" customHeight="1" ht="15">
       <c r="A35" t="s"/>
@@ -2082,7 +2179,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="3">
-        <v>15390.00</v>
+        <v>545187.00</v>
       </c>
       <c r="E35" s="4" t="e">
         <f>B$35 &amp; C$35</f>
@@ -2097,6 +2194,9 @@
       <c r="I35" s="3" t="e">
         <f>IF(G$35="X",SUM(I_),VALUE(D$35))</f>
       </c>
+      <c r="J35" s="3">
+        <v>545187.00</v>
+      </c>
     </row>
     <row r="36" customHeight="1" ht="15">
       <c r="A36" t="s"/>
@@ -2107,7 +2207,7 @@
         <v>38</v>
       </c>
       <c r="D36" s="3">
-        <v>747327.00</v>
+        <v>406185.00</v>
       </c>
       <c r="E36" s="4" t="e">
         <f>B$36 &amp; C$36</f>
@@ -2122,6 +2222,9 @@
       <c r="I36" s="3" t="e">
         <f>IF(G$36="X",SUM(I_),VALUE(D$36))</f>
       </c>
+      <c r="J36" s="3">
+        <v>406185.00</v>
+      </c>
     </row>
     <row r="37" customHeight="1" ht="15">
       <c r="A37" t="s"/>
@@ -2132,7 +2235,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="3">
-        <v>0.00</v>
+        <v>457355.00</v>
       </c>
       <c r="E37" s="4" t="e">
         <f>B$37 &amp; C$37</f>
@@ -2141,13 +2244,16 @@
         <v>4</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I37" s="3" t="e">
         <f>IF(G$37="X",SUM(I_35),VALUE(D$37))</f>
+      </c>
+      <c r="J37" s="3">
+        <v>457355.00</v>
       </c>
     </row>
     <row r="38" customHeight="1" ht="15">
@@ -2159,7 +2265,7 @@
         <v>40</v>
       </c>
       <c r="D38" s="3">
-        <v>897209.00</v>
+        <v>457355.00</v>
       </c>
       <c r="E38" s="4" t="e">
         <f>B$38 &amp; C$38</f>
@@ -2174,6 +2280,9 @@
       <c r="I38" s="3" t="e">
         <f>IF(G$38="X",SUM(I_),VALUE(D$38))</f>
       </c>
+      <c r="J38" s="3">
+        <v>457355.00</v>
+      </c>
     </row>
     <row r="39" customHeight="1" ht="15">
       <c r="A39" t="s"/>
@@ -2184,7 +2293,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="3">
-        <v>179679.00</v>
+        <v>543600.00</v>
       </c>
       <c r="E39" s="4" t="e">
         <f>B$39 &amp; C$39</f>
@@ -2199,6 +2308,9 @@
       <c r="I39" s="3" t="e">
         <f>IF(G$39="X",SUM(I_),VALUE(D$39))</f>
       </c>
+      <c r="J39" s="3">
+        <v>543600.00</v>
+      </c>
     </row>
     <row r="40" customHeight="1" ht="15">
       <c r="A40" t="s"/>
@@ -2209,7 +2321,7 @@
         <v>30</v>
       </c>
       <c r="D40" s="3">
-        <v>21452.00</v>
+        <v>119635.00</v>
       </c>
       <c r="E40" s="4" t="e">
         <f>B$40 &amp; C$40</f>
@@ -2224,6 +2336,9 @@
       <c r="I40" s="3" t="e">
         <f>IF(G$40="X",SUM(I_),VALUE(D$40))</f>
       </c>
+      <c r="J40" s="3">
+        <v>119635.00</v>
+      </c>
     </row>
     <row r="41" customHeight="1" ht="15">
       <c r="A41" t="s"/>
@@ -2234,7 +2349,7 @@
         <v>41</v>
       </c>
       <c r="D41" s="3">
-        <v>848191.00</v>
+        <v>52246.00</v>
       </c>
       <c r="E41" s="4" t="e">
         <f>B$41 &amp; C$41</f>
@@ -2249,6 +2364,9 @@
       <c r="I41" s="3" t="e">
         <f>IF(G$41="X",SUM(I_),VALUE(D$41))</f>
       </c>
+      <c r="J41" s="3">
+        <v>52246.00</v>
+      </c>
     </row>
     <row r="42" customHeight="1" ht="15">
       <c r="A42" t="s"/>
@@ -2259,7 +2377,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="3">
-        <v>0.00</v>
+        <v>2309360.00</v>
       </c>
       <c r="E42" s="4" t="e">
         <f>B$42 &amp; C$42</f>
@@ -2268,13 +2386,16 @@
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I42" s="3" t="e">
         <f>IF(G$42="X",SUM(I_40,I_41,I_42,I_48),VALUE(D$42))</f>
+      </c>
+      <c r="J42" s="3">
+        <v>2309360.00</v>
       </c>
     </row>
     <row r="43" customHeight="1" ht="15">
@@ -2286,7 +2407,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="3">
-        <v>416485.00</v>
+        <v>768695.00</v>
       </c>
       <c r="E43" s="4" t="e">
         <f>B$43 &amp; C$43</f>
@@ -2301,6 +2422,9 @@
       <c r="I43" s="3" t="e">
         <f>IF(G$43="X",SUM(I_),VALUE(D$43))</f>
       </c>
+      <c r="J43" s="3">
+        <v>768695.00</v>
+      </c>
     </row>
     <row r="44" customHeight="1" ht="15">
       <c r="A44" t="s"/>
@@ -2311,7 +2435,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="3">
-        <v>426378.00</v>
+        <v>272798.00</v>
       </c>
       <c r="E44" s="4" t="e">
         <f>B$44 &amp; C$44</f>
@@ -2326,6 +2450,9 @@
       <c r="I44" s="3" t="e">
         <f>IF(G$44="X",SUM(I_),VALUE(D$44))</f>
       </c>
+      <c r="J44" s="3">
+        <v>272798.00</v>
+      </c>
     </row>
     <row r="45" customHeight="1" ht="15">
       <c r="A45" t="s"/>
@@ -2336,7 +2463,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="3">
-        <v>0.00</v>
+        <v>1022341.00</v>
       </c>
       <c r="E45" s="4" t="e">
         <f>B$45 &amp; C$45</f>
@@ -2345,13 +2472,16 @@
         <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="3" t="e">
         <f>IF(G$45="X",SUM(I_43,I_44,I_45,I_47),VALUE(D$45))</f>
+      </c>
+      <c r="J45" s="3">
+        <v>1022341.00</v>
       </c>
     </row>
     <row r="46" customHeight="1" ht="15">
@@ -2363,7 +2493,7 @@
         <v>48</v>
       </c>
       <c r="D46" s="3">
-        <v>84744.00</v>
+        <v>97818.00</v>
       </c>
       <c r="E46" s="4" t="e">
         <f>B$46 &amp; C$46</f>
@@ -2378,6 +2508,9 @@
       <c r="I46" s="3" t="e">
         <f>IF(G$46="X",SUM(I_),VALUE(D$46))</f>
       </c>
+      <c r="J46" s="3">
+        <v>97818.00</v>
+      </c>
     </row>
     <row r="47" customHeight="1" ht="15">
       <c r="A47" t="s"/>
@@ -2388,7 +2521,7 @@
         <v>49</v>
       </c>
       <c r="D47" s="3">
-        <v>151522.00</v>
+        <v>29555.00</v>
       </c>
       <c r="E47" s="4" t="e">
         <f>B$47 &amp; C$47</f>
@@ -2403,6 +2536,9 @@
       <c r="I47" s="3" t="e">
         <f>IF(G$47="X",SUM(I_),VALUE(D$47))</f>
       </c>
+      <c r="J47" s="3">
+        <v>29555.00</v>
+      </c>
     </row>
     <row r="48" customHeight="1" ht="15">
       <c r="A48" t="s"/>
@@ -2413,7 +2549,7 @@
         <v>50</v>
       </c>
       <c r="D48" s="3">
-        <v>0.00</v>
+        <v>7112.00</v>
       </c>
       <c r="E48" s="4" t="e">
         <f>B$48 &amp; C$48</f>
@@ -2422,13 +2558,16 @@
         <v>4</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I48" s="3" t="e">
         <f>IF(G$48="X",SUM(I_46),VALUE(D$48))</f>
+      </c>
+      <c r="J48" s="3">
+        <v>7112.00</v>
       </c>
     </row>
     <row r="49" customHeight="1" ht="15">
@@ -2440,7 +2579,7 @@
         <v>51</v>
       </c>
       <c r="D49" s="3">
-        <v>622004.00</v>
+        <v>7112.00</v>
       </c>
       <c r="E49" s="4" t="e">
         <f>B$49 &amp; C$49</f>
@@ -2455,6 +2594,9 @@
       <c r="I49" s="3" t="e">
         <f>IF(G$49="X",SUM(I_),VALUE(D$49))</f>
       </c>
+      <c r="J49" s="3">
+        <v>7112.00</v>
+      </c>
     </row>
     <row r="50" customHeight="1" ht="15">
       <c r="A50" t="s"/>
@@ -2465,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="D50" s="3">
-        <v>648236.00</v>
+        <v>887856.00</v>
       </c>
       <c r="E50" s="4" t="e">
         <f>B$50 &amp; C$50</f>
@@ -2480,6 +2622,9 @@
       <c r="I50" s="3" t="e">
         <f>IF(G$50="X",SUM(I_),VALUE(D$50))</f>
       </c>
+      <c r="J50" s="3">
+        <v>887856.00</v>
+      </c>
     </row>
     <row r="51" customHeight="1" ht="15">
       <c r="A51" t="s"/>
@@ -2490,7 +2635,7 @@
         <v>44</v>
       </c>
       <c r="D51" s="3">
-        <v>886723.00</v>
+        <v>245526.00</v>
       </c>
       <c r="E51" s="4" t="e">
         <f>B$51 &amp; C$51</f>
@@ -2504,6 +2649,9 @@
       </c>
       <c r="I51" s="3" t="e">
         <f>IF(G$51="X",SUM(I_),VALUE(D$51))</f>
+      </c>
+      <c r="J51" s="3">
+        <v>245526.00</v>
       </c>
     </row>
   </sheetData>
